--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_54_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_54_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HAPAG LIOYD AG</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HAPAG LIOYD AG</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HAPAG LIOYD AG</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HAPAG LIOYD AG</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HAPAG LIOYD AG</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HAPAG LIOYD AG</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HAPAG LIOYD AG</t>
         </is>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -7989,7 +7989,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED (OCL)</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>HAPAG LIOYD AG</t>
         </is>
       </c>
     </row>

--- a/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_54_.xlsx
+++ b/reports/_HAPAG LIOYD AG_SUMMIT ALLIANCE PORT LIMITED (OCL)_container_report_2018-11-28_54_.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -108,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,43 +132,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -176,220 +170,173 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HAPAG LIOYD AG</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HAPAG LIOYD AG</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="A7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -412,23 +359,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -438,106 +385,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HAPAG LIOYD AG</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HAPAG LIOYD AG</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,44 +507,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -609,232 +552,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HAPAG LIOYD AG</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HAPAG LIOYD AG</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="A7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -857,23 +783,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -883,106 +809,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HAPAG LIOYD AG</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HAPAG LIOYD AG</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,44 +931,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1054,232 +976,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HAPAG LIOYD AG</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HAPAG LIOYD AG</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
+      <c r="A7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1302,23 +1207,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1328,106 +1233,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HAPAG LIOYD AG</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HAPAG LIOYD AG</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,41 +1355,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.589887640449438"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.48988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="58.08988764044944"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1496,181 +1397,249 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HAPAG LIOYD AG</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HAPAG LIOYD AG</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:58</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>37032</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>CAIU9414169</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>GBX</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>HLG</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-OCL</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-OCL</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>SMILEY LADY</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>2018/1930</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="d">
+        <v>2018-06-30T00:00:00</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0" t="n">
+        <v>1446379</v>
+      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -1724,15 +1693,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L8" s="0" t="d">
+      <c r="L8" s="4" t="d">
         <v>2018-07-19T00:00:00</v>
       </c>
-      <c r="M8" s="0" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N8" s="0"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="0" t="n">
         <v>132</v>
       </c>
@@ -1833,15 +1802,15 @@
           <t>IMPORT</t>
         </is>
       </c>
-      <c r="L9" s="0" t="d">
+      <c r="L9" s="4" t="d">
         <v>2018-07-19T00:00:00</v>
       </c>
-      <c r="M9" s="0" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N9" s="0"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="0" t="n">
         <v>132</v>
       </c>
@@ -1892,11 +1861,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>37385</v>
+        <v>37272</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>FSCU9501867</t>
+          <t>CAIU8525548</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -1929,44 +1898,44 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>KOTA WAJAR</t>
+          <t>OREA</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>2018/1148</t>
+          <t>2344/2018</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L10" s="4" t="d">
+        <v>2018-08-12T00:00:00</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N10" s="0"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="0" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0" t="n">
-        <v>1470714</v>
+        <v>1466561</v>
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
@@ -1980,7 +1949,7 @@
       </c>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST</t>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
         </is>
       </c>
       <c r="Y10" s="0" t="inlineStr">
@@ -2001,11 +1970,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>37385</v>
+        <v>37272</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>FSCU9501867</t>
+          <t>CAIU8525548</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2038,58 +2007,58 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>KOTA WAJAR</t>
+          <t>OREA</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>2018/1148</t>
+          <t>2344/2018</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="d">
+        <v>2018-08-12T00:00:00</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N11" s="0"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="0" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="n">
-        <v>1470714</v>
+        <v>1466561</v>
       </c>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W11" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR BOTTOM GASKET LOOSE 12'</t>
+          <t>FLOOR BOARD NAILS FITTING 03 PLS</t>
         </is>
       </c>
       <c r="Y11" s="0" t="inlineStr">
@@ -2110,11 +2079,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>37405</v>
+        <v>37366</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>FCIU9420004</t>
+          <t>SLSU8065288</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2147,12 +2116,12 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>WEST SCENT</t>
+          <t>IBN AL ABBAR</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>2018/2369</t>
+          <t>2427/18</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
@@ -2160,17 +2129,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L12" s="0" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>SWEEP</t>
-        </is>
-      </c>
-      <c r="N12" s="0"/>
+      <c r="L12" s="4" t="d">
+        <v>2018-08-20T00:00:00</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="0" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0</v>
@@ -2184,7 +2153,7 @@
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0" t="n">
-        <v>1471131</v>
+        <v>1470389</v>
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
@@ -2198,7 +2167,7 @@
       </c>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
       <c r="Y12" s="0" t="inlineStr">
@@ -2219,11 +2188,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>37406</v>
+        <v>37369</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>TEMU7885348</t>
+          <t>UACU5280236</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2256,12 +2225,12 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>WEST SCENT</t>
+          <t>ESM CREMONA</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>2018/2369</t>
+          <t>2018/2245</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -2269,17 +2238,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L13" s="0" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N13" s="0"/>
+      <c r="L13" s="4" t="d">
+        <v>2018-08-20T00:00:00</v>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="0" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>0</v>
@@ -2293,7 +2262,7 @@
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0" t="n">
-        <v>1471144</v>
+        <v>1470408</v>
       </c>
       <c r="V13" s="0" t="inlineStr">
         <is>
@@ -2307,7 +2276,7 @@
       </c>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+          <t>FLOOR BOARD DIRTY &amp; ANIMUL FEED &amp; ODOUR </t>
         </is>
       </c>
       <c r="Y13" s="0" t="inlineStr">
@@ -2328,11 +2297,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>37487</v>
+        <v>37369</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>UACU5586421</t>
+          <t>UACU5280236</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2365,30 +2334,30 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>ESM CREMONA</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2245</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="d">
-        <v>2018-08-30T00:00:00</v>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N14" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L14" s="4" t="d">
+        <v>2018-08-20T00:00:00</v>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0</v>
@@ -2402,21 +2371,21 @@
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0" t="n">
-        <v>1472216</v>
+        <v>1470408</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; NAILS FITTING 06 PCS</t>
+          <t>INTERIRO PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y14" s="0" t="inlineStr">
@@ -2437,11 +2406,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>37535</v>
+        <v>37383</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>HLXU8121989</t>
+          <t>TCLU8229820</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2474,44 +2443,44 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>LUCKY MERRY</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2164</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M15" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="d">
+        <v>2018-08-24T00:00:00</v>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N15" s="0"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="0" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0" t="n">
-        <v>1472783</v>
+        <v>1470701</v>
       </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
@@ -2525,7 +2494,7 @@
       </c>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y15" s="0" t="inlineStr">
@@ -2546,11 +2515,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>37535</v>
+        <v>37383</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>HLXU8121989</t>
+          <t>TCLU8229820</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2583,44 +2552,44 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>LUCKY MERRY</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2164</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="d">
+        <v>2018-08-24T00:00:00</v>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N16" s="0"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="0" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0" t="n">
-        <v>1472783</v>
+        <v>1470701</v>
       </c>
       <c r="V16" s="0" t="inlineStr">
         <is>
@@ -2655,11 +2624,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>37730</v>
+        <v>37384</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>UACU5715196</t>
+          <t>GLDU7169713</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2692,44 +2661,44 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>OEL LANKA</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2253</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L17" s="4" t="d">
+        <v>2018-08-24T00:00:00</v>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N17" s="0"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="0" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0" t="n">
-        <v>1474063</v>
+        <v>1470702</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
@@ -2743,7 +2712,7 @@
       </c>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+          <t>FLOOR BOARD DIRTY &amp; ODOUR</t>
         </is>
       </c>
       <c r="Y17" s="0" t="inlineStr">
@@ -2764,11 +2733,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>37730</v>
+        <v>37384</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>UACU5715196</t>
+          <t>GLDU7169713</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2801,58 +2770,58 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>OEL LANKA</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2253</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L18" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L18" s="4" t="d">
+        <v>2018-08-24T00:00:00</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N18" s="0"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="0" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R18" s="0"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="0" t="n">
-        <v>1474063</v>
+        <v>1470702</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W18" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD NAILS FITTING 8 PES</t>
+          <t>RIGHT DOOR LOCK BAR BENT 01 PCS</t>
         </is>
       </c>
       <c r="Y18" s="0" t="inlineStr">
@@ -2873,11 +2842,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>37733</v>
+        <v>37384</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>GESU4656115</t>
+          <t>GLDU7169713</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -2910,58 +2879,58 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>OEL LANKA</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2253</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N19" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L19" s="4" t="d">
+        <v>2018-08-24T00:00:00</v>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="0" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0" t="n">
-        <v>1474072</v>
+        <v>1470702</v>
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+          <t>RIGHT DOOR BOTTOM KEEPER BENT 01 PCS</t>
         </is>
       </c>
       <c r="Y19" s="0" t="inlineStr">
@@ -2982,11 +2951,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>37733</v>
+        <v>37385</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>GESU4656115</t>
+          <t>FSCU9501867</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3019,58 +2988,58 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>KOTA WAJAR</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/1148</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L20" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N20" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L20" s="4" t="d">
+        <v>2018-08-24T00:00:00</v>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N20" s="4"/>
       <c r="O20" s="0" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R20" s="0"/>
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0" t="n">
-        <v>1474072</v>
+        <v>1470714</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W20" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>RIGHT SIDE PANEL PUSH IN 20" X 40</t>
+          <t>FLOOR BOARD DIRTY BY MUD DUST</t>
         </is>
       </c>
       <c r="Y20" s="0" t="inlineStr">
@@ -3091,11 +3060,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>37733</v>
+        <v>37385</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>GESU4656115</t>
+          <t>FSCU9501867</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3128,58 +3097,58 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>KOTA WAJAR</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/1148</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L21" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N21" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L21" s="4" t="d">
+        <v>2018-08-24T00:00:00</v>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N21" s="4"/>
       <c r="O21" s="0" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R21" s="0"/>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0" t="n">
-        <v>1474072</v>
+        <v>1470714</v>
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>LEFT SIDE PANEL PUSH IN 20" 40"</t>
+          <t>RIGHT DOOR BOTTOM GASKET LOOSE 12'</t>
         </is>
       </c>
       <c r="Y21" s="0" t="inlineStr">
@@ -3200,11 +3169,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>37774</v>
+        <v>37405</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>TCLU8079139</t>
+          <t>FCIU9420004</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3237,30 +3206,30 @@
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>WEST SCENT</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2369</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N22" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L22" s="4" t="d">
+        <v>2018-08-27T00:00:00</v>
+      </c>
+      <c r="M22" s="4" t="inlineStr">
+        <is>
+          <t>SWEEP</t>
+        </is>
+      </c>
+      <c r="N22" s="4"/>
       <c r="O22" s="0" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0</v>
@@ -3274,7 +3243,7 @@
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0" t="n">
-        <v>1474419</v>
+        <v>1471131</v>
       </c>
       <c r="V22" s="0" t="inlineStr">
         <is>
@@ -3288,7 +3257,7 @@
       </c>
       <c r="X22" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; NAILS FITTING 08 PCS</t>
+          <t>FLOOR BOARD SWEEPING</t>
         </is>
       </c>
       <c r="Y22" s="0" t="inlineStr">
@@ -3309,11 +3278,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>37780</v>
+        <v>37406</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>TCNU5837401</t>
+          <t>TEMU7885348</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3346,30 +3315,30 @@
       </c>
       <c r="I23" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>WEST SCENT</t>
         </is>
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2369</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L23" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M23" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N23" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="d">
+        <v>2018-08-27T00:00:00</v>
+      </c>
+      <c r="M23" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N23" s="4"/>
       <c r="O23" s="0" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P23" s="0" t="n">
         <v>0</v>
@@ -3383,7 +3352,7 @@
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
       <c r="U23" s="0" t="n">
-        <v>1474476</v>
+        <v>1471144</v>
       </c>
       <c r="V23" s="0" t="inlineStr">
         <is>
@@ -3397,7 +3366,7 @@
       </c>
       <c r="X23" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y23" s="0" t="inlineStr">
@@ -3418,11 +3387,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>37780</v>
+        <v>37410</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>TCNU5837401</t>
+          <t>HLBU1539579</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3455,44 +3424,44 @@
       </c>
       <c r="I24" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2478</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L24" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M24" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N24" s="0"/>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L24" s="4" t="d">
+        <v>2018-08-27T00:00:00</v>
+      </c>
+      <c r="M24" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N24" s="4"/>
       <c r="O24" s="0" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
       <c r="U24" s="0" t="n">
-        <v>1474476</v>
+        <v>1471221</v>
       </c>
       <c r="V24" s="0" t="inlineStr">
         <is>
@@ -3506,7 +3475,7 @@
       </c>
       <c r="X24" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD NAILS FITTING 8 PES</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y24" s="0" t="inlineStr">
@@ -3527,11 +3496,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>40008</v>
+        <v>37412</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>HLXU5246160</t>
+          <t>FSCU7221229</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3539,7 +3508,7 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
@@ -3564,12 +3533,12 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>KOTA WAJAR</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>2018/2043</t>
+          <t>2018/2478</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
@@ -3577,17 +3546,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L25" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M25" s="0" t="inlineStr">
+      <c r="L25" s="4" t="d">
+        <v>2018-08-27T00:00:00</v>
+      </c>
+      <c r="M25" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N25" s="0"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="0" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>1</v>
@@ -3601,7 +3570,7 @@
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
       <c r="U25" s="0" t="n">
-        <v>1478305</v>
+        <v>1471231</v>
       </c>
       <c r="V25" s="0" t="inlineStr">
         <is>
@@ -3610,12 +3579,12 @@
       </c>
       <c r="W25" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X25" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>FLOOR BOARD SWEEPING &amp; ODOUR</t>
         </is>
       </c>
       <c r="Y25" s="0" t="inlineStr">
@@ -3636,11 +3605,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>37366</v>
+        <v>37487</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>SLSU8065288</t>
+          <t>UACU5586421</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3673,30 +3642,30 @@
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>IBN AL ABBAR</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>2427/18</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L26" s="0" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N26" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L26" s="4" t="d">
+        <v>2018-08-30T00:00:00</v>
+      </c>
+      <c r="M26" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>0</v>
@@ -3710,7 +3679,7 @@
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
       <c r="U26" s="0" t="n">
-        <v>1470389</v>
+        <v>1472216</v>
       </c>
       <c r="V26" s="0" t="inlineStr">
         <is>
@@ -3724,7 +3693,7 @@
       </c>
       <c r="X26" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+          <t>FLOOR BOARD DIRTY &amp; NAILS FITTING 06 PCS</t>
         </is>
       </c>
       <c r="Y26" s="0" t="inlineStr">
@@ -3745,11 +3714,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>37369</v>
+        <v>37514</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>UACU5280236</t>
+          <t>TCNU9040611</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3782,30 +3751,30 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>ESM CREMONA</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>2018/2245</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L27" s="0" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="M27" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L27" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M27" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N27" s="0"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="0" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
@@ -3819,7 +3788,7 @@
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
       <c r="U27" s="0" t="n">
-        <v>1470408</v>
+        <v>1472588</v>
       </c>
       <c r="V27" s="0" t="inlineStr">
         <is>
@@ -3828,12 +3797,12 @@
       </c>
       <c r="W27" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X27" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; ANIMUL FEED &amp; ODOUR </t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
         </is>
       </c>
       <c r="Y27" s="0" t="inlineStr">
@@ -3854,11 +3823,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>37369</v>
+        <v>37522</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>UACU5280236</t>
+          <t>TGHU9089336</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -3891,30 +3860,30 @@
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>ESM CREMONA</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>2018/2245</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L28" s="0" t="d">
-        <v>2018-08-20T00:00:00</v>
-      </c>
-      <c r="M28" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N28" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L28" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M28" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="0" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0</v>
@@ -3928,21 +3897,21 @@
       <c r="S28" s="0"/>
       <c r="T28" s="0"/>
       <c r="U28" s="0" t="n">
-        <v>1470408</v>
+        <v>1472645</v>
       </c>
       <c r="V28" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W28" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X28" s="0" t="inlineStr">
         <is>
-          <t>INTERIRO PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY MUD DUST</t>
         </is>
       </c>
       <c r="Y28" s="0" t="inlineStr">
@@ -3963,11 +3932,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>37383</v>
+        <v>37522</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>TCLU8229820</t>
+          <t>TGHU9089336</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4000,30 +3969,30 @@
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>LUCKY MERRY</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>2018/2164</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L29" s="0" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N29" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="0" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -4037,7 +4006,7 @@
       <c r="S29" s="0"/>
       <c r="T29" s="0"/>
       <c r="U29" s="0" t="n">
-        <v>1470701</v>
+        <v>1472645</v>
       </c>
       <c r="V29" s="0" t="inlineStr">
         <is>
@@ -4046,12 +4015,12 @@
       </c>
       <c r="W29" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X29" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>FLOOR BOARD NAILS FITTINGS AT VARIOUS PLASE</t>
         </is>
       </c>
       <c r="Y29" s="0" t="inlineStr">
@@ -4072,11 +4041,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>37383</v>
+        <v>37535</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>TCLU8229820</t>
+          <t>HLXU8121989</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4109,58 +4078,58 @@
       </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
-          <t>LUCKY MERRY</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>2018/2164</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K30" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L30" s="0" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="M30" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L30" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M30" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N30" s="0"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="0" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R30" s="0"/>
       <c r="S30" s="0"/>
       <c r="T30" s="0"/>
       <c r="U30" s="0" t="n">
-        <v>1470701</v>
+        <v>1472783</v>
       </c>
       <c r="V30" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W30" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X30" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
       <c r="Y30" s="0" t="inlineStr">
@@ -4181,11 +4150,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>37384</v>
+        <v>37535</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>GLDU7169713</t>
+          <t>HLXU8121989</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4218,30 +4187,30 @@
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>OEL LANKA</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>2018/2253</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L31" s="0" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="M31" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N31" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L31" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M31" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="0" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>1</v>
@@ -4255,21 +4224,21 @@
       <c r="S31" s="0"/>
       <c r="T31" s="0"/>
       <c r="U31" s="0" t="n">
-        <v>1470702</v>
+        <v>1472783</v>
       </c>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W31" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X31" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY &amp; ODOUR</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y31" s="0" t="inlineStr">
@@ -4290,11 +4259,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>37384</v>
+        <v>37551</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>GLDU7169713</t>
+          <t>TCNU8317070</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4327,58 +4296,58 @@
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>OEL LANKA</t>
+          <t>HAPPY BEE</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>2018/2253</t>
+          <t>2018/2555</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L32" s="0" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="M32" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N32" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M32" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N32" s="4"/>
       <c r="O32" s="0" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R32" s="0"/>
       <c r="S32" s="0"/>
       <c r="T32" s="0"/>
       <c r="U32" s="0" t="n">
-        <v>1470702</v>
+        <v>1472873</v>
       </c>
       <c r="V32" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W32" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X32" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR LOCK BAR BENT 01 PCS</t>
+          <t>FLOOR BOARD DIRTY BY CHEMICAL STAIN</t>
         </is>
       </c>
       <c r="Y32" s="0" t="inlineStr">
@@ -4399,11 +4368,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>37384</v>
+        <v>37553</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>GLDU7169713</t>
+          <t>TEMU6718140</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4436,12 +4405,12 @@
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>OEL LANKA</t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>2018/2253</t>
+          <t>1854/18</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
@@ -4449,70 +4418,46 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L33" s="0" t="d">
-        <v>2018-08-24T00:00:00</v>
-      </c>
-      <c r="M33" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N33" s="0"/>
+      <c r="L33" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M33" s="4" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="N33" s="4"/>
       <c r="O33" s="0" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R33" s="0"/>
       <c r="S33" s="0"/>
       <c r="T33" s="0"/>
       <c r="U33" s="0" t="n">
-        <v>1470702</v>
-      </c>
-      <c r="V33" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
-      <c r="W33" s="0" t="inlineStr">
-        <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="X33" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BOTTOM KEEPER BENT 01 PCS</t>
-        </is>
-      </c>
-      <c r="Y33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+        <v>1472884</v>
+      </c>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>37410</v>
+        <v>37554</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>HLBU1539579</t>
+          <t>UACU5681938</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4545,12 +4490,12 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>2018/2478</t>
+          <t>2018/2185</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
@@ -4558,17 +4503,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L34" s="0" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="M34" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N34" s="0"/>
+      <c r="L34" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M34" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N34" s="4"/>
       <c r="O34" s="0" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>1</v>
@@ -4582,7 +4527,7 @@
       <c r="S34" s="0"/>
       <c r="T34" s="0"/>
       <c r="U34" s="0" t="n">
-        <v>1471221</v>
+        <v>1472886</v>
       </c>
       <c r="V34" s="0" t="inlineStr">
         <is>
@@ -4596,7 +4541,7 @@
       </c>
       <c r="X34" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>FLOOR BOARD SWEEPINGS</t>
         </is>
       </c>
       <c r="Y34" s="0" t="inlineStr">
@@ -4617,11 +4562,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>37412</v>
+        <v>37560</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>FSCU7221229</t>
+          <t>AMFU8799324</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4654,12 +4599,12 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t>2018/2478</t>
+          <t>1854/18</t>
         </is>
       </c>
       <c r="K35" s="0" t="inlineStr">
@@ -4667,31 +4612,31 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L35" s="0" t="d">
-        <v>2018-08-27T00:00:00</v>
-      </c>
-      <c r="M35" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N35" s="0"/>
+      <c r="L35" s="4" t="d">
+        <v>2018-08-31T00:00:00</v>
+      </c>
+      <c r="M35" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N35" s="4"/>
       <c r="O35" s="0" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R35" s="0"/>
       <c r="S35" s="0"/>
       <c r="T35" s="0"/>
       <c r="U35" s="0" t="n">
-        <v>1471231</v>
+        <v>1473022</v>
       </c>
       <c r="V35" s="0" t="inlineStr">
         <is>
@@ -4705,7 +4650,7 @@
       </c>
       <c r="X35" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPING &amp; ODOUR</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
         </is>
       </c>
       <c r="Y35" s="0" t="inlineStr">
@@ -4726,11 +4671,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>37514</v>
+        <v>37560</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>TCNU9040611</t>
+          <t>AMFU8799324</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4763,28 +4708,28 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>1854/18</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L36" s="0" t="d">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="d">
         <v>2018-08-31T00:00:00</v>
       </c>
-      <c r="M36" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N36" s="0"/>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N36" s="4"/>
       <c r="O36" s="0" t="n">
         <v>89</v>
       </c>
@@ -4800,21 +4745,21 @@
       <c r="S36" s="0"/>
       <c r="T36" s="0"/>
       <c r="U36" s="0" t="n">
-        <v>1472588</v>
+        <v>1473022</v>
       </c>
       <c r="V36" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W36" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X36" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+          <t>LEFT DOOR HINGERS PIN MISSING 01 PCS</t>
         </is>
       </c>
       <c r="Y36" s="0" t="inlineStr">
@@ -4835,11 +4780,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>37522</v>
+        <v>37561</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>TGHU9089336</t>
+          <t>HLXU6525575</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -4872,44 +4817,44 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>1854/18</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L37" s="0" t="d">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L37" s="4" t="d">
         <v>2018-08-31T00:00:00</v>
       </c>
-      <c r="M37" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N37" s="0"/>
+      <c r="M37" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N37" s="4"/>
       <c r="O37" s="0" t="n">
         <v>89</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R37" s="0"/>
       <c r="S37" s="0"/>
       <c r="T37" s="0"/>
       <c r="U37" s="0" t="n">
-        <v>1472645</v>
+        <v>1473024</v>
       </c>
       <c r="V37" s="0" t="inlineStr">
         <is>
@@ -4918,12 +4863,12 @@
       </c>
       <c r="W37" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X37" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY MUD DUST</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y37" s="0" t="inlineStr">
@@ -4944,11 +4889,11 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>37522</v>
+        <v>37730</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>TGHU9089336</t>
+          <t>UACU5715196</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
@@ -4994,17 +4939,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L38" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M38" s="0" t="inlineStr">
+      <c r="L38" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M38" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N38" s="0"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="0" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>0</v>
@@ -5018,7 +4963,7 @@
       <c r="S38" s="0"/>
       <c r="T38" s="0"/>
       <c r="U38" s="0" t="n">
-        <v>1472645</v>
+        <v>1474063</v>
       </c>
       <c r="V38" s="0" t="inlineStr">
         <is>
@@ -5027,12 +4972,12 @@
       </c>
       <c r="W38" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X38" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD NAILS FITTINGS AT VARIOUS PLASE</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
         </is>
       </c>
       <c r="Y38" s="0" t="inlineStr">
@@ -5053,11 +4998,11 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>37551</v>
+        <v>37730</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>TCNU8317070</t>
+          <t>UACU5715196</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
@@ -5090,12 +5035,12 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>HAPPY BEE</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>2018/2555</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
@@ -5103,17 +5048,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L39" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M39" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N39" s="0"/>
+      <c r="L39" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M39" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N39" s="4"/>
       <c r="O39" s="0" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P39" s="0" t="n">
         <v>0</v>
@@ -5127,7 +5072,7 @@
       <c r="S39" s="0"/>
       <c r="T39" s="0"/>
       <c r="U39" s="0" t="n">
-        <v>1472873</v>
+        <v>1474063</v>
       </c>
       <c r="V39" s="0" t="inlineStr">
         <is>
@@ -5141,7 +5086,7 @@
       </c>
       <c r="X39" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY CHEMICAL STAIN</t>
+          <t>FLOOR BOARD NAILS FITTING 8 PES</t>
         </is>
       </c>
       <c r="Y39" s="0" t="inlineStr">
@@ -5162,11 +5107,11 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>37553</v>
+        <v>37733</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>TEMU6718140</t>
+          <t>GESU4656115</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
@@ -5199,30 +5144,30 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>M GOUGH</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>1854/18</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L40" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M40" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="N40" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L40" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M40" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N40" s="4"/>
       <c r="O40" s="0" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0</v>
@@ -5236,22 +5181,46 @@
       <c r="S40" s="0"/>
       <c r="T40" s="0"/>
       <c r="U40" s="0" t="n">
-        <v>1472884</v>
-      </c>
-      <c r="V40" s="0"/>
-      <c r="W40" s="0"/>
-      <c r="X40" s="0"/>
-      <c r="Y40" s="0"/>
-      <c r="Z40" s="0"/>
-      <c r="AA40" s="0"/>
+        <v>1474072</v>
+      </c>
+      <c r="V40" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W40" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X40" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+        </is>
+      </c>
+      <c r="Y40" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z40" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA40" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>37554</v>
+        <v>37733</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>UACU5681938</t>
+          <t>GESU4656115</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
@@ -5284,58 +5253,58 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>M GOUGH</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>2018/2185</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L41" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M41" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N41" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L41" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M41" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N41" s="4"/>
       <c r="O41" s="0" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R41" s="0"/>
       <c r="S41" s="0"/>
       <c r="T41" s="0"/>
       <c r="U41" s="0" t="n">
-        <v>1472886</v>
+        <v>1474072</v>
       </c>
       <c r="V41" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W41" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X41" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD SWEEPINGS</t>
+          <t>RIGHT SIDE PANEL PUSH IN 20" X 40</t>
         </is>
       </c>
       <c r="Y41" s="0" t="inlineStr">
@@ -5356,11 +5325,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>37560</v>
+        <v>37733</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>AMFU8799324</t>
+          <t>GESU4656115</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
@@ -5393,30 +5362,30 @@
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>M GOUGH</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
         <is>
-          <t>1854/18</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K42" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L42" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M42" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N42" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L42" s="4" t="d">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="M42" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N42" s="4"/>
       <c r="O42" s="0" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>0</v>
@@ -5430,21 +5399,21 @@
       <c r="S42" s="0"/>
       <c r="T42" s="0"/>
       <c r="U42" s="0" t="n">
-        <v>1473022</v>
+        <v>1474072</v>
       </c>
       <c r="V42" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W42" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X42" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN</t>
+          <t>LEFT SIDE PANEL PUSH IN 20" 40"</t>
         </is>
       </c>
       <c r="Y42" s="0" t="inlineStr">
@@ -5465,11 +5434,11 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>37560</v>
+        <v>37774</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>AMFU8799324</t>
+          <t>TCLU8079139</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
@@ -5502,30 +5471,30 @@
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>M GOUGH</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>1854/18</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K43" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L43" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M43" s="0" t="inlineStr">
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L43" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M43" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N43" s="0"/>
+      <c r="N43" s="4"/>
       <c r="O43" s="0" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0</v>
@@ -5539,21 +5508,21 @@
       <c r="S43" s="0"/>
       <c r="T43" s="0"/>
       <c r="U43" s="0" t="n">
-        <v>1473022</v>
+        <v>1474419</v>
       </c>
       <c r="V43" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W43" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X43" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR HINGERS PIN MISSING 01 PCS</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; NAILS FITTING 08 PCS</t>
         </is>
       </c>
       <c r="Y43" s="0" t="inlineStr">
@@ -5574,11 +5543,11 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>37561</v>
+        <v>37780</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>HLXU6525575</t>
+          <t>TCNU5837401</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
@@ -5611,44 +5580,44 @@
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>M GOUGH</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>1854/18</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L44" s="0" t="d">
-        <v>2018-08-31T00:00:00</v>
-      </c>
-      <c r="M44" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N44" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L44" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M44" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="0" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="R44" s="0"/>
       <c r="S44" s="0"/>
       <c r="T44" s="0"/>
       <c r="U44" s="0" t="n">
-        <v>1473024</v>
+        <v>1474476</v>
       </c>
       <c r="V44" s="0" t="inlineStr">
         <is>
@@ -5662,7 +5631,7 @@
       </c>
       <c r="X44" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
         </is>
       </c>
       <c r="Y44" s="0" t="inlineStr">
@@ -5683,11 +5652,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>37032</v>
+        <v>37780</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>CAIU9414169</t>
+          <t>TCNU5837401</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -5720,30 +5689,30 @@
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>SMILEY LADY</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>2018/1930</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L45" s="0" t="d">
-        <v>2018-06-30T00:00:00</v>
-      </c>
-      <c r="M45" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="N45" s="0"/>
+          <t>OTC</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N45" s="4"/>
       <c r="O45" s="0" t="n">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>0</v>
@@ -5757,22 +5726,46 @@
       <c r="S45" s="0"/>
       <c r="T45" s="0"/>
       <c r="U45" s="0" t="n">
-        <v>1446379</v>
-      </c>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0"/>
-      <c r="Y45" s="0"/>
-      <c r="Z45" s="0"/>
-      <c r="AA45" s="0"/>
+        <v>1474476</v>
+      </c>
+      <c r="V45" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="W45" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="X45" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD NAILS FITTING 8 PES</t>
+        </is>
+      </c>
+      <c r="Y45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>37272</v>
+        <v>37792</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>CAIU8525548</t>
+          <t>DFSU6322836</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
@@ -5805,12 +5798,12 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>OREA</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>2344/2018</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
@@ -5818,17 +5811,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L46" s="0" t="d">
-        <v>2018-08-12T00:00:00</v>
-      </c>
-      <c r="M46" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N46" s="0"/>
+      <c r="L46" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N46" s="4"/>
       <c r="O46" s="0" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
@@ -5842,7 +5835,7 @@
       <c r="S46" s="0"/>
       <c r="T46" s="0"/>
       <c r="U46" s="0" t="n">
-        <v>1466561</v>
+        <v>1474554</v>
       </c>
       <c r="V46" s="0" t="inlineStr">
         <is>
@@ -5856,7 +5849,7 @@
       </c>
       <c r="X46" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
         </is>
       </c>
       <c r="Y46" s="0" t="inlineStr">
@@ -5877,11 +5870,11 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>37272</v>
+        <v>37792</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>CAIU8525548</t>
+          <t>DFSU6322836</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
@@ -5914,12 +5907,12 @@
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>OREA</t>
+          <t>ATLANTIC</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>2344/2018</t>
+          <t>2018/2536</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
@@ -5927,17 +5920,17 @@
           <t>OTC</t>
         </is>
       </c>
-      <c r="L47" s="0" t="d">
-        <v>2018-08-12T00:00:00</v>
-      </c>
-      <c r="M47" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N47" s="0"/>
+      <c r="L47" s="4" t="d">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="M47" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N47" s="4"/>
       <c r="O47" s="0" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="P47" s="0" t="n">
         <v>0</v>
@@ -5951,21 +5944,21 @@
       <c r="S47" s="0"/>
       <c r="T47" s="0"/>
       <c r="U47" s="0" t="n">
-        <v>1466561</v>
+        <v>1474554</v>
       </c>
       <c r="V47" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W47" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X47" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD NAILS FITTING 03 PLS</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y47" s="0" t="inlineStr">
@@ -5986,11 +5979,11 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>37792</v>
+        <v>38756</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>DFSU6322836</t>
+          <t>TRLU7388359</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
@@ -6023,30 +6016,30 @@
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>PAUL ABRAO</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2629</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L48" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M48" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N48" s="0"/>
+      <c r="N48" s="4"/>
       <c r="O48" s="0" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P48" s="0" t="n">
         <v>0</v>
@@ -6060,7 +6053,7 @@
       <c r="S48" s="0"/>
       <c r="T48" s="0"/>
       <c r="U48" s="0" t="n">
-        <v>1474554</v>
+        <v>1478293</v>
       </c>
       <c r="V48" s="0" t="inlineStr">
         <is>
@@ -6069,12 +6062,12 @@
       </c>
       <c r="W48" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X48" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
         </is>
       </c>
       <c r="Y48" s="0" t="inlineStr">
@@ -6095,11 +6088,11 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>37792</v>
+        <v>38756</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>DFSU6322836</t>
+          <t>TRLU7388359</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
@@ -6132,30 +6125,30 @@
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>ATLANTIC</t>
+          <t>PAUL ABRAO</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>2018/2536</t>
+          <t>2018/2629</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
         <is>
-          <t>OTC</t>
-        </is>
-      </c>
-      <c r="L49" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="M49" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N49" s="0"/>
+      <c r="N49" s="4"/>
       <c r="O49" s="0" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>0</v>
@@ -6169,7 +6162,7 @@
       <c r="S49" s="0"/>
       <c r="T49" s="0"/>
       <c r="U49" s="0" t="n">
-        <v>1474554</v>
+        <v>1478293</v>
       </c>
       <c r="V49" s="0" t="inlineStr">
         <is>
@@ -6183,7 +6176,7 @@
       </c>
       <c r="X49" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>INTERIOR PANEL INK</t>
         </is>
       </c>
       <c r="Y49" s="0" t="inlineStr">
@@ -6204,11 +6197,11 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>38756</v>
+        <v>38757</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>TRLU7388359</t>
+          <t>TCLU5989726</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
@@ -6241,12 +6234,12 @@
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>PAUL ABRAO</t>
+          <t>ROBERT RICKMERS</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>2018/2629</t>
+          <t>2018/2471</t>
         </is>
       </c>
       <c r="K50" s="0" t="inlineStr">
@@ -6254,15 +6247,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L50" s="0" t="d">
+      <c r="L50" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M50" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N50" s="0"/>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N50" s="4"/>
       <c r="O50" s="0" t="n">
         <v>77</v>
       </c>
@@ -6278,7 +6271,7 @@
       <c r="S50" s="0"/>
       <c r="T50" s="0"/>
       <c r="U50" s="0" t="n">
-        <v>1478293</v>
+        <v>1478294</v>
       </c>
       <c r="V50" s="0" t="inlineStr">
         <is>
@@ -6292,7 +6285,7 @@
       </c>
       <c r="X50" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL STAIN</t>
+          <t>FLOOR BOARD DIRTY BY POLTRY FEED DUST &amp; ODOUR</t>
         </is>
       </c>
       <c r="Y50" s="0" t="inlineStr">
@@ -6313,11 +6306,11 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>38756</v>
+        <v>38757</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>TRLU7388359</t>
+          <t>TCLU5989726</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
@@ -6350,12 +6343,12 @@
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>PAUL ABRAO</t>
+          <t>ROBERT RICKMERS</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>2018/2629</t>
+          <t>2018/2471</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -6363,15 +6356,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L51" s="0" t="d">
+      <c r="L51" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M51" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N51" s="0"/>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N51" s="4"/>
       <c r="O51" s="0" t="n">
         <v>77</v>
       </c>
@@ -6387,21 +6380,21 @@
       <c r="S51" s="0"/>
       <c r="T51" s="0"/>
       <c r="U51" s="0" t="n">
-        <v>1478293</v>
+        <v>1478294</v>
       </c>
       <c r="V51" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W51" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X51" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL INK</t>
+          <t>LEFT DOOR HINGS BENT 1 PCS (DOOR UNLOCK)</t>
         </is>
       </c>
       <c r="Y51" s="0" t="inlineStr">
@@ -6422,11 +6415,11 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>38757</v>
+        <v>38758</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>TCLU5989726</t>
+          <t>UACU5063971</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
@@ -6472,15 +6465,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L52" s="0" t="d">
+      <c r="L52" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M52" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N52" s="0"/>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N52" s="4"/>
       <c r="O52" s="0" t="n">
         <v>77</v>
       </c>
@@ -6496,7 +6489,7 @@
       <c r="S52" s="0"/>
       <c r="T52" s="0"/>
       <c r="U52" s="0" t="n">
-        <v>1478294</v>
+        <v>1478295</v>
       </c>
       <c r="V52" s="0" t="inlineStr">
         <is>
@@ -6531,11 +6524,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>38757</v>
+        <v>38758</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>TCLU5989726</t>
+          <t>UACU5063971</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -6581,15 +6574,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L53" s="0" t="d">
+      <c r="L53" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M53" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N53" s="0"/>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N53" s="4"/>
       <c r="O53" s="0" t="n">
         <v>77</v>
       </c>
@@ -6605,21 +6598,21 @@
       <c r="S53" s="0"/>
       <c r="T53" s="0"/>
       <c r="U53" s="0" t="n">
-        <v>1478294</v>
+        <v>1478295</v>
       </c>
       <c r="V53" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W53" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X53" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR HINGS BENT 1 PCS (DOOR UNLOCK)</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y53" s="0" t="inlineStr">
@@ -6640,11 +6633,11 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>38758</v>
+        <v>38759</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>UACU5063971</t>
+          <t>UACU5287272</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
@@ -6690,15 +6683,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L54" s="0" t="d">
+      <c r="L54" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M54" s="0" t="inlineStr">
+      <c r="M54" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N54" s="0"/>
+      <c r="N54" s="4"/>
       <c r="O54" s="0" t="n">
         <v>77</v>
       </c>
@@ -6714,7 +6707,7 @@
       <c r="S54" s="0"/>
       <c r="T54" s="0"/>
       <c r="U54" s="0" t="n">
-        <v>1478295</v>
+        <v>1478297</v>
       </c>
       <c r="V54" s="0" t="inlineStr">
         <is>
@@ -6749,11 +6742,11 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>38758</v>
+        <v>38760</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>UACU5063971</t>
+          <t>HAMU1264770</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
@@ -6786,12 +6779,12 @@
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>ROBERT RICKMERS</t>
+          <t>TAICHUNG</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>2018/2471</t>
+          <t>2018/2677</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
@@ -6799,15 +6792,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L55" s="0" t="d">
+      <c r="L55" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M55" s="0" t="inlineStr">
+      <c r="M55" s="4" t="inlineStr">
         <is>
           <t>CLEANED</t>
         </is>
       </c>
-      <c r="N55" s="0"/>
+      <c r="N55" s="4"/>
       <c r="O55" s="0" t="n">
         <v>77</v>
       </c>
@@ -6823,21 +6816,21 @@
       <c r="S55" s="0"/>
       <c r="T55" s="0"/>
       <c r="U55" s="0" t="n">
-        <v>1478295</v>
+        <v>1478298</v>
       </c>
       <c r="V55" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W55" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X55" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY TYRE MARK,</t>
         </is>
       </c>
       <c r="Y55" s="0" t="inlineStr">
@@ -6858,11 +6851,11 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>38759</v>
+        <v>38761</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>UACU5287272</t>
+          <t>BEAU4200684</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
@@ -6895,12 +6888,12 @@
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t>ROBERT RICKMERS</t>
+          <t>TAICHUNG</t>
         </is>
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>2018/2471</t>
+          <t>2018/2677</t>
         </is>
       </c>
       <c r="K56" s="0" t="inlineStr">
@@ -6908,15 +6901,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L56" s="0" t="d">
+      <c r="L56" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M56" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N56" s="0"/>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N56" s="4"/>
       <c r="O56" s="0" t="n">
         <v>77</v>
       </c>
@@ -6932,7 +6925,7 @@
       <c r="S56" s="0"/>
       <c r="T56" s="0"/>
       <c r="U56" s="0" t="n">
-        <v>1478297</v>
+        <v>1478299</v>
       </c>
       <c r="V56" s="0" t="inlineStr">
         <is>
@@ -6946,7 +6939,7 @@
       </c>
       <c r="X56" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY POLTRY FEED DUST &amp; ODOUR</t>
+          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; TYRE MARK</t>
         </is>
       </c>
       <c r="Y56" s="0" t="inlineStr">
@@ -6967,11 +6960,11 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>38760</v>
+        <v>38761</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>HAMU1264770</t>
+          <t>BEAU4200684</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
@@ -7017,15 +7010,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L57" s="0" t="d">
+      <c r="L57" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M57" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
-      <c r="N57" s="0"/>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>REPAIRED</t>
+        </is>
+      </c>
+      <c r="N57" s="4"/>
       <c r="O57" s="0" t="n">
         <v>77</v>
       </c>
@@ -7041,21 +7034,21 @@
       <c r="S57" s="0"/>
       <c r="T57" s="0"/>
       <c r="U57" s="0" t="n">
-        <v>1478298</v>
+        <v>1478299</v>
       </c>
       <c r="V57" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W57" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X57" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY TYRE MARK,</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y57" s="0" t="inlineStr">
@@ -7126,15 +7119,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L58" s="0" t="d">
+      <c r="L58" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M58" s="0" t="inlineStr">
+      <c r="M58" s="4" t="inlineStr">
         <is>
           <t>REPAIRED</t>
         </is>
       </c>
-      <c r="N58" s="0"/>
+      <c r="N58" s="4"/>
       <c r="O58" s="0" t="n">
         <v>77</v>
       </c>
@@ -7154,17 +7147,17 @@
       </c>
       <c r="V58" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W58" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X58" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY OIL SPOT &amp; TYRE MARK</t>
+          <t>RIGHT DOOR BOTTOM GASKET CUT 3"</t>
         </is>
       </c>
       <c r="Y58" s="0" t="inlineStr">
@@ -7185,11 +7178,11 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>38761</v>
+        <v>38764</v>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>BEAU4200684</t>
+          <t>DRYU9008685</t>
         </is>
       </c>
       <c r="C59" s="0" t="n">
@@ -7222,12 +7215,12 @@
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>TAICHUNG</t>
+          <t>ROBERT RICKMERS</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>2018/2677</t>
+          <t>2018/2471</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -7235,15 +7228,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L59" s="0" t="d">
+      <c r="L59" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M59" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N59" s="0"/>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N59" s="4"/>
       <c r="O59" s="0" t="n">
         <v>77</v>
       </c>
@@ -7259,21 +7252,21 @@
       <c r="S59" s="0"/>
       <c r="T59" s="0"/>
       <c r="U59" s="0" t="n">
-        <v>1478299</v>
+        <v>1478302</v>
       </c>
       <c r="V59" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W59" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X59" s="0" t="inlineStr">
         <is>
-          <t>INTERIOR PANEL DIRTY</t>
+          <t>FLOOR BOARD DIRTY BY POLTRY FEED DUST &amp; ODOUR</t>
         </is>
       </c>
       <c r="Y59" s="0" t="inlineStr">
@@ -7294,11 +7287,11 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>38761</v>
+        <v>38764</v>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>BEAU4200684</t>
+          <t>DRYU9008685</t>
         </is>
       </c>
       <c r="C60" s="0" t="n">
@@ -7331,12 +7324,12 @@
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>TAICHUNG</t>
+          <t>ROBERT RICKMERS</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>2018/2677</t>
+          <t>2018/2471</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
@@ -7344,15 +7337,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L60" s="0" t="d">
+      <c r="L60" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M60" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
-      <c r="N60" s="0"/>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N60" s="4"/>
       <c r="O60" s="0" t="n">
         <v>77</v>
       </c>
@@ -7368,7 +7361,7 @@
       <c r="S60" s="0"/>
       <c r="T60" s="0"/>
       <c r="U60" s="0" t="n">
-        <v>1478299</v>
+        <v>1478302</v>
       </c>
       <c r="V60" s="0" t="inlineStr">
         <is>
@@ -7382,7 +7375,7 @@
       </c>
       <c r="X60" s="0" t="inlineStr">
         <is>
-          <t>RIGHT DOOR BOTTOM GASKET CUT 3"</t>
+          <t>LEFT DOOR TOP GASKET CUT 2"</t>
         </is>
       </c>
       <c r="Y60" s="0" t="inlineStr">
@@ -7453,15 +7446,15 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L61" s="0" t="d">
+      <c r="L61" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M61" s="0" t="inlineStr">
+      <c r="M61" s="4" t="inlineStr">
         <is>
           <t>DAMAGE</t>
         </is>
       </c>
-      <c r="N61" s="0"/>
+      <c r="N61" s="4"/>
       <c r="O61" s="0" t="n">
         <v>77</v>
       </c>
@@ -7481,17 +7474,17 @@
       </c>
       <c r="V61" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W61" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X61" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY POLTRY FEED DUST &amp; ODOUR</t>
+          <t>LEFT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS WITH LOCKBAR</t>
         </is>
       </c>
       <c r="Y61" s="0" t="inlineStr">
@@ -7512,11 +7505,11 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>38764</v>
+        <v>40008</v>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>DRYU9008685</t>
+          <t>HLXU5246160</t>
         </is>
       </c>
       <c r="C62" s="0" t="n">
@@ -7524,7 +7517,7 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
@@ -7549,12 +7542,12 @@
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>ROBERT RICKMERS</t>
+          <t>KOTA WAJAR</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>2018/2471</t>
+          <t>2018/2043</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
@@ -7562,45 +7555,45 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L62" s="0" t="d">
+      <c r="L62" s="4" t="d">
         <v>2018-09-12T00:00:00</v>
       </c>
-      <c r="M62" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N62" s="0"/>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t>CLEANED</t>
+        </is>
+      </c>
+      <c r="N62" s="4"/>
       <c r="O62" s="0" t="n">
         <v>77</v>
       </c>
       <c r="P62" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R62" s="0"/>
       <c r="S62" s="0"/>
       <c r="T62" s="0"/>
       <c r="U62" s="0" t="n">
-        <v>1478302</v>
+        <v>1478305</v>
       </c>
       <c r="V62" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W62" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X62" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR TOP GASKET CUT 2"</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y62" s="0" t="inlineStr">
@@ -7621,19 +7614,19 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>38764</v>
+        <v>40030</v>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>DRYU9008685</t>
+          <t>UACU3993201</t>
         </is>
       </c>
       <c r="C63" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -7658,58 +7651,58 @@
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>ROBERT RICKMERS</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>2018/2471</t>
+          <t>2478/2018</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L63" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M63" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N63" s="0"/>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="L63" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M63" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N63" s="4"/>
       <c r="O63" s="0" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P63" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="0" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="R63" s="0"/>
       <c r="S63" s="0"/>
       <c r="T63" s="0"/>
       <c r="U63" s="0" t="n">
-        <v>1478302</v>
+        <v>1478893</v>
       </c>
       <c r="V63" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W63" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X63" s="0" t="inlineStr">
         <is>
-          <t>LEFT DOOR LOCKBAR BOTTOM KEEPER BENT 1 PCS WITH LOCKBAR</t>
+          <t>FLOOR BOARD DIRTY</t>
         </is>
       </c>
       <c r="Y63" s="0" t="inlineStr">
@@ -7780,15 +7773,15 @@
           <t>SAPL</t>
         </is>
       </c>
-      <c r="L64" s="0" t="d">
+      <c r="L64" s="4" t="d">
         <v>2018-09-13T00:00:00</v>
       </c>
-      <c r="M64" s="0" t="inlineStr">
+      <c r="M64" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N64" s="0"/>
+      <c r="N64" s="4"/>
       <c r="O64" s="0" t="n">
         <v>76</v>
       </c>
@@ -7808,17 +7801,17 @@
       </c>
       <c r="V64" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W64" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X64" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY</t>
+          <t>INTERIOR PANEL DIRTY</t>
         </is>
       </c>
       <c r="Y64" s="0" t="inlineStr">
@@ -7832,115 +7825,6 @@
         </is>
       </c>
       <c r="AA64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="n">
-        <v>40030</v>
-      </c>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>UACU3993201</t>
-        </is>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D65" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="E65" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="F65" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="G65" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="H65" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-OCL</t>
-        </is>
-      </c>
-      <c r="I65" s="0" t="inlineStr">
-        <is>
-          <t>OEL BANGLADESH</t>
-        </is>
-      </c>
-      <c r="J65" s="0" t="inlineStr">
-        <is>
-          <t>2478/2018</t>
-        </is>
-      </c>
-      <c r="K65" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="L65" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M65" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N65" s="0"/>
-      <c r="O65" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="P65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="0" t="inlineStr">
-        <is>
-          <t>Laden</t>
-        </is>
-      </c>
-      <c r="R65" s="0"/>
-      <c r="S65" s="0"/>
-      <c r="T65" s="0"/>
-      <c r="U65" s="0" t="n">
-        <v>1478893</v>
-      </c>
-      <c r="V65" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
-      <c r="W65" s="0" t="inlineStr">
-        <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="X65" s="0" t="inlineStr">
-        <is>
-          <t>INTERIOR PANEL DIRTY</t>
-        </is>
-      </c>
-      <c r="Y65" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z65" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA65" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -7967,23 +7851,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -7993,78 +7877,117 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>HAPAG LIOYD AG</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>HAPAG LIOYD AG</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>GBX</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>HLG</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -8080,7 +8003,7 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>40-GP</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
@@ -8093,19 +8016,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -8121,72 +8044,31 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>40-GP</t>
+          <t>40-HC</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>GBX</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>HLG</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>40-HC</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="K9" s="0" t="n">
         <v>68</v>
       </c>
     </row>
